--- a/data/pca/factorExposure/factorExposure_2015-03-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02240328861929304</v>
+        <v>0.01238454624505865</v>
       </c>
       <c r="C2">
-        <v>0.02449967669201843</v>
+        <v>0.05182896573870911</v>
       </c>
       <c r="D2">
-        <v>0.1522345015888716</v>
+        <v>0.1200851513563463</v>
       </c>
       <c r="E2">
-        <v>0.05079607035987205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.04724157968572635</v>
+      </c>
+      <c r="F2">
+        <v>0.04070235770225922</v>
+      </c>
+      <c r="G2">
+        <v>-0.1397015118647711</v>
+      </c>
+      <c r="H2">
+        <v>-0.0800337412609842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04804076295449693</v>
+        <v>0.02181534370101355</v>
       </c>
       <c r="C4">
-        <v>0.07230277510347319</v>
+        <v>0.110060390349416</v>
       </c>
       <c r="D4">
-        <v>0.1140963942374606</v>
+        <v>0.1167256180537575</v>
       </c>
       <c r="E4">
-        <v>0.1104622935076692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.04549757089911527</v>
+      </c>
+      <c r="F4">
+        <v>0.09950190006787307</v>
+      </c>
+      <c r="G4">
+        <v>-0.03794081829692372</v>
+      </c>
+      <c r="H4">
+        <v>0.06655577214268793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0295743325513353</v>
+        <v>0.03457485677992524</v>
       </c>
       <c r="C6">
-        <v>0.01462596491986097</v>
+        <v>0.03869452416865023</v>
       </c>
       <c r="D6">
-        <v>0.118628492725671</v>
+        <v>0.09916806379667668</v>
       </c>
       <c r="E6">
-        <v>0.06639472665428436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.08481553001131903</v>
+      </c>
+      <c r="F6">
+        <v>0.04695204358027279</v>
+      </c>
+      <c r="G6">
+        <v>0.0012290609224723</v>
+      </c>
+      <c r="H6">
+        <v>-0.01129885044065193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.001599222038205</v>
+        <v>0.006943869127558193</v>
       </c>
       <c r="C7">
-        <v>0.02505962610826031</v>
+        <v>0.04045123493486531</v>
       </c>
       <c r="D7">
-        <v>0.1123060999639767</v>
+        <v>0.089823575873496</v>
       </c>
       <c r="E7">
-        <v>0.02938665632252734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.07669425416646741</v>
+      </c>
+      <c r="F7">
+        <v>0.01240814672037071</v>
+      </c>
+      <c r="G7">
+        <v>-2.05214721520288e-05</v>
+      </c>
+      <c r="H7">
+        <v>0.02374922342855174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.003852637551097566</v>
+        <v>-0.00428218235041102</v>
       </c>
       <c r="C8">
-        <v>0.0270907515366153</v>
+        <v>0.03854057564168147</v>
       </c>
       <c r="D8">
-        <v>0.08257077591286503</v>
+        <v>0.06185406223439634</v>
       </c>
       <c r="E8">
-        <v>0.04489978765532058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04911861043281757</v>
+      </c>
+      <c r="F8">
+        <v>0.04920850678813338</v>
+      </c>
+      <c r="G8">
+        <v>-0.07254039544346415</v>
+      </c>
+      <c r="H8">
+        <v>0.02613056430172711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03848332481575886</v>
+        <v>0.01613841923566411</v>
       </c>
       <c r="C9">
-        <v>0.06376595946410353</v>
+        <v>0.09092289339892375</v>
       </c>
       <c r="D9">
-        <v>0.1183086433048929</v>
+        <v>0.1031482745472429</v>
       </c>
       <c r="E9">
-        <v>0.09049008856550927</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.03955645350258041</v>
+      </c>
+      <c r="F9">
+        <v>0.06679528804520275</v>
+      </c>
+      <c r="G9">
+        <v>-0.01739949770085378</v>
+      </c>
+      <c r="H9">
+        <v>0.02448368441546614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1828644400634741</v>
+        <v>0.2436858895694515</v>
       </c>
       <c r="C10">
-        <v>-0.1706608905960798</v>
+        <v>-0.09496737283173562</v>
       </c>
       <c r="D10">
-        <v>-0.03619566366822247</v>
+        <v>-0.01608337224321475</v>
       </c>
       <c r="E10">
-        <v>0.03826232738635703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02554686627925147</v>
+      </c>
+      <c r="F10">
+        <v>0.03671892900411745</v>
+      </c>
+      <c r="G10">
+        <v>0.01348802713743518</v>
+      </c>
+      <c r="H10">
+        <v>-0.005336004120390766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01838453954002577</v>
+        <v>0.01147130695427362</v>
       </c>
       <c r="C11">
-        <v>0.04144186368329285</v>
+        <v>0.05966726256823027</v>
       </c>
       <c r="D11">
-        <v>0.04844571921479168</v>
+        <v>0.03919617242640099</v>
       </c>
       <c r="E11">
-        <v>-0.0105932947920643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.03833264212986003</v>
+      </c>
+      <c r="F11">
+        <v>-0.01249818552827097</v>
+      </c>
+      <c r="G11">
+        <v>0.001572270952904608</v>
+      </c>
+      <c r="H11">
+        <v>0.02171630011989959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0173315503571136</v>
+        <v>0.01252939805480029</v>
       </c>
       <c r="C12">
-        <v>0.04232706091607732</v>
+        <v>0.05244608520795834</v>
       </c>
       <c r="D12">
-        <v>0.06493996040286383</v>
+        <v>0.04699104471429355</v>
       </c>
       <c r="E12">
-        <v>0.003078466118999927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03445120148852039</v>
+      </c>
+      <c r="F12">
+        <v>-0.01507620954935696</v>
+      </c>
+      <c r="G12">
+        <v>0.01537731046089066</v>
+      </c>
+      <c r="H12">
+        <v>-0.01198280025708905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.008692803277047674</v>
+        <v>0.003517727609805877</v>
       </c>
       <c r="C13">
-        <v>0.02723477103212773</v>
+        <v>0.05882385071082356</v>
       </c>
       <c r="D13">
-        <v>0.137774575785094</v>
+        <v>0.1567207079421289</v>
       </c>
       <c r="E13">
-        <v>0.06721699258536125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.07168822806933657</v>
+      </c>
+      <c r="F13">
+        <v>0.04274249134566019</v>
+      </c>
+      <c r="G13">
+        <v>-0.05864523221778528</v>
+      </c>
+      <c r="H13">
+        <v>-0.07830485120276524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.004044564298117705</v>
+        <v>0.00418851747041748</v>
       </c>
       <c r="C14">
-        <v>0.01877201062411391</v>
+        <v>0.03509434304310795</v>
       </c>
       <c r="D14">
-        <v>0.08432042218920151</v>
+        <v>0.08743428774901017</v>
       </c>
       <c r="E14">
-        <v>0.02627819057955608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.08291235861477632</v>
+      </c>
+      <c r="F14">
+        <v>0.02972240381366892</v>
+      </c>
+      <c r="G14">
+        <v>-0.03220138053956294</v>
+      </c>
+      <c r="H14">
+        <v>-0.03175625631821068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002710689064199402</v>
+        <v>-0.003808604751441042</v>
       </c>
       <c r="C15">
-        <v>0.01308518635763254</v>
+        <v>0.03016907922034348</v>
       </c>
       <c r="D15">
-        <v>0.04653501705130282</v>
+        <v>0.05783957324250753</v>
       </c>
       <c r="E15">
-        <v>0.007324302716435076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.035093619536693</v>
+      </c>
+      <c r="F15">
+        <v>0.009000182061933693</v>
+      </c>
+      <c r="G15">
+        <v>-0.03158713541563728</v>
+      </c>
+      <c r="H15">
+        <v>0.01017887778929219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01759453670214814</v>
+        <v>0.01089519085826365</v>
       </c>
       <c r="C16">
-        <v>0.03803280904793935</v>
+        <v>0.05224760574220527</v>
       </c>
       <c r="D16">
-        <v>0.05489324221883331</v>
+        <v>0.04238776579281844</v>
       </c>
       <c r="E16">
-        <v>0.001045353607919357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.03985312643105902</v>
+      </c>
+      <c r="F16">
+        <v>-0.007081824105295586</v>
+      </c>
+      <c r="G16">
+        <v>0.01203475525984292</v>
+      </c>
+      <c r="H16">
+        <v>0.01016128132887732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.000231677671813191</v>
+        <v>-0.002187802914863239</v>
       </c>
       <c r="C19">
-        <v>0.02039377780568259</v>
+        <v>0.01617805382389277</v>
       </c>
       <c r="D19">
-        <v>0.07913981219721754</v>
+        <v>0.04696638788793737</v>
       </c>
       <c r="E19">
-        <v>0.04484429882074613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.001797969985012697</v>
+      </c>
+      <c r="F19">
+        <v>0.01414284740607231</v>
+      </c>
+      <c r="G19">
+        <v>-0.02446160659405806</v>
+      </c>
+      <c r="H19">
+        <v>-0.02031010040494862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003881031146384956</v>
+        <v>0.005276881580956665</v>
       </c>
       <c r="C20">
-        <v>0.02562184769023181</v>
+        <v>0.04317075447346302</v>
       </c>
       <c r="D20">
-        <v>0.0768252851970611</v>
+        <v>0.08114236221279157</v>
       </c>
       <c r="E20">
-        <v>0.04919408276585542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.04660757082921597</v>
+      </c>
+      <c r="F20">
+        <v>0.02840966138693166</v>
+      </c>
+      <c r="G20">
+        <v>0.002044029043770384</v>
+      </c>
+      <c r="H20">
+        <v>0.02980057676684105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01091492215326256</v>
+        <v>0.004872179564605201</v>
       </c>
       <c r="C21">
-        <v>0.03161957379024544</v>
+        <v>0.04991292832720873</v>
       </c>
       <c r="D21">
-        <v>0.134953915232282</v>
+        <v>0.1149526645823029</v>
       </c>
       <c r="E21">
-        <v>0.1043483753744192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0613509011065223</v>
+      </c>
+      <c r="F21">
+        <v>0.0929074391534457</v>
+      </c>
+      <c r="G21">
+        <v>-0.07668201714125134</v>
+      </c>
+      <c r="H21">
+        <v>-0.09903896435869275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.004855256945468705</v>
+        <v>-0.006695399463753545</v>
       </c>
       <c r="C22">
-        <v>0.05245204326166533</v>
+        <v>0.07979500876019746</v>
       </c>
       <c r="D22">
-        <v>0.2174277285149983</v>
+        <v>0.2167878337971312</v>
       </c>
       <c r="E22">
-        <v>0.07145992580873262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04384081390778003</v>
+      </c>
+      <c r="F22">
+        <v>0.04002643237161586</v>
+      </c>
+      <c r="G22">
+        <v>-0.2426051711628303</v>
+      </c>
+      <c r="H22">
+        <v>0.09141216710595206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.005197255237675277</v>
+        <v>-0.003599069508560933</v>
       </c>
       <c r="C23">
-        <v>0.05270311319940563</v>
+        <v>0.08150358274409367</v>
       </c>
       <c r="D23">
-        <v>0.2161167015144477</v>
+        <v>0.2203104520943396</v>
       </c>
       <c r="E23">
-        <v>0.07164735602536725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04054035073180384</v>
+      </c>
+      <c r="F23">
+        <v>0.04292131694802175</v>
+      </c>
+      <c r="G23">
+        <v>-0.2363177720208444</v>
+      </c>
+      <c r="H23">
+        <v>0.08620971517857892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02418375982819243</v>
+        <v>0.01218903864475246</v>
       </c>
       <c r="C24">
-        <v>0.05995387802388243</v>
+        <v>0.07026462357194381</v>
       </c>
       <c r="D24">
-        <v>0.06961811003425693</v>
+        <v>0.04417801917828845</v>
       </c>
       <c r="E24">
-        <v>0.00442453733498775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.04689033521072657</v>
+      </c>
+      <c r="F24">
+        <v>-0.005591741926780034</v>
+      </c>
+      <c r="G24">
+        <v>-0.006082197543930864</v>
+      </c>
+      <c r="H24">
+        <v>0.01015198248368977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02461678061429684</v>
+        <v>0.0163703854165638</v>
       </c>
       <c r="C25">
-        <v>0.0507289050830471</v>
+        <v>0.06471253094724931</v>
       </c>
       <c r="D25">
-        <v>0.06232490297160853</v>
+        <v>0.04859923827717345</v>
       </c>
       <c r="E25">
-        <v>0.01086959171526806</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03204785343429919</v>
+      </c>
+      <c r="F25">
+        <v>-0.005381887240460416</v>
+      </c>
+      <c r="G25">
+        <v>0.01005529667350944</v>
+      </c>
+      <c r="H25">
+        <v>0.009114227742028191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.009520617717547803</v>
+        <v>0.0177740437676413</v>
       </c>
       <c r="C26">
-        <v>0.01686733062360599</v>
+        <v>0.03065211159416199</v>
       </c>
       <c r="D26">
-        <v>0.07200684508219818</v>
+        <v>0.05503946977826397</v>
       </c>
       <c r="E26">
-        <v>0.03616021189280751</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.05791988057237452</v>
+      </c>
+      <c r="F26">
+        <v>0.04625570673465958</v>
+      </c>
+      <c r="G26">
+        <v>-0.03468879555499985</v>
+      </c>
+      <c r="H26">
+        <v>-0.00737970857724824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2620250946134609</v>
+        <v>0.3115296700403373</v>
       </c>
       <c r="C28">
-        <v>-0.1908597593396056</v>
+        <v>-0.0955702211869478</v>
       </c>
       <c r="D28">
-        <v>-0.01075372644893251</v>
+        <v>-0.02057658888247357</v>
       </c>
       <c r="E28">
-        <v>0.03945001411122288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05693799153924389</v>
+      </c>
+      <c r="F28">
+        <v>0.04599288390698415</v>
+      </c>
+      <c r="G28">
+        <v>-0.06255309394744341</v>
+      </c>
+      <c r="H28">
+        <v>0.0058491202086712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001692485525052403</v>
+        <v>0.002903458584229374</v>
       </c>
       <c r="C29">
-        <v>0.02270438589999155</v>
+        <v>0.04141347261217058</v>
       </c>
       <c r="D29">
-        <v>0.08408098585489181</v>
+        <v>0.09207148225601543</v>
       </c>
       <c r="E29">
-        <v>0.03525727589868088</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.09561637150329293</v>
+      </c>
+      <c r="F29">
+        <v>0.03298179107113422</v>
+      </c>
+      <c r="G29">
+        <v>-0.0258750574337616</v>
+      </c>
+      <c r="H29">
+        <v>-0.03938277930082492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03069025900467685</v>
+        <v>0.01840340466617675</v>
       </c>
       <c r="C30">
-        <v>0.06842279963856748</v>
+        <v>0.09787763118644643</v>
       </c>
       <c r="D30">
-        <v>0.1563151684180226</v>
+        <v>0.1205407844832189</v>
       </c>
       <c r="E30">
-        <v>0.05265268313375491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.08427342319257573</v>
+      </c>
+      <c r="F30">
+        <v>0.0225884544808195</v>
+      </c>
+      <c r="G30">
+        <v>-0.03251637716393346</v>
+      </c>
+      <c r="H30">
+        <v>0.04371787766748226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0380367295935705</v>
+        <v>0.01122304347340912</v>
       </c>
       <c r="C31">
-        <v>0.08340751570021759</v>
+        <v>0.09481974239347549</v>
       </c>
       <c r="D31">
-        <v>0.05579763893092193</v>
+        <v>0.03319422629084223</v>
       </c>
       <c r="E31">
-        <v>0.02069082781800312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0259472381340156</v>
+      </c>
+      <c r="F31">
+        <v>0.01749570559995666</v>
+      </c>
+      <c r="G31">
+        <v>-0.0215869388444584</v>
+      </c>
+      <c r="H31">
+        <v>0.004340243099582675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01631844196835309</v>
+        <v>0.0121493612970483</v>
       </c>
       <c r="C32">
-        <v>0.04027298539048452</v>
+        <v>0.05119873977669574</v>
       </c>
       <c r="D32">
-        <v>0.08755966981929064</v>
+        <v>0.07853757203075591</v>
       </c>
       <c r="E32">
-        <v>0.06657649639183807</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01112079022286426</v>
+      </c>
+      <c r="F32">
+        <v>0.05007340606422216</v>
+      </c>
+      <c r="G32">
+        <v>-0.03533491375265387</v>
+      </c>
+      <c r="H32">
+        <v>-0.02317653226974024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.008270198547497569</v>
+        <v>0.008760428844191169</v>
       </c>
       <c r="C33">
-        <v>0.04039740205506652</v>
+        <v>0.06265960632555875</v>
       </c>
       <c r="D33">
-        <v>0.1170743946853832</v>
+        <v>0.1103828244532053</v>
       </c>
       <c r="E33">
-        <v>0.05808485749371053</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.05660672224681948</v>
+      </c>
+      <c r="F33">
+        <v>0.03105898119052167</v>
+      </c>
+      <c r="G33">
+        <v>-0.01712397966363686</v>
+      </c>
+      <c r="H33">
+        <v>7.76018359423003e-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02250546480571766</v>
+        <v>0.01134094268345682</v>
       </c>
       <c r="C34">
-        <v>0.06033099182720411</v>
+        <v>0.06477450688754093</v>
       </c>
       <c r="D34">
-        <v>0.06030200004564473</v>
+        <v>0.02514006054696987</v>
       </c>
       <c r="E34">
-        <v>-0.04017925028280427</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03961612946064726</v>
+      </c>
+      <c r="F34">
+        <v>-0.0384026600099714</v>
+      </c>
+      <c r="G34">
+        <v>-0.004566753661382595</v>
+      </c>
+      <c r="H34">
+        <v>-0.0005751016570936845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.003607939495945512</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01361382979539324</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.0334514744136525</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.0184716952126142</v>
+      </c>
+      <c r="F35">
+        <v>0.01685684756783699</v>
+      </c>
+      <c r="G35">
+        <v>-0.002858927189930561</v>
+      </c>
+      <c r="H35">
+        <v>-0.005279386346383167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.008066455665270006</v>
+        <v>0.01128098975021568</v>
       </c>
       <c r="C36">
-        <v>0.007694728335276133</v>
+        <v>0.02330734699610961</v>
       </c>
       <c r="D36">
-        <v>0.06868213404348782</v>
+        <v>0.06487111142862081</v>
       </c>
       <c r="E36">
-        <v>0.0568502911647371</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.04575444579526469</v>
+      </c>
+      <c r="F36">
+        <v>0.05142365225981312</v>
+      </c>
+      <c r="G36">
+        <v>-0.02368325931482987</v>
+      </c>
+      <c r="H36">
+        <v>-0.002466904695708753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.006853351330358033</v>
+        <v>0.01162782338457289</v>
       </c>
       <c r="C38">
-        <v>0.008048406142922798</v>
+        <v>0.02765765623823506</v>
       </c>
       <c r="D38">
-        <v>0.09091964064954532</v>
+        <v>0.08568204492572032</v>
       </c>
       <c r="E38">
-        <v>0.02414487332180658</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.03267497504347253</v>
+      </c>
+      <c r="F38">
+        <v>0.005282471374631036</v>
+      </c>
+      <c r="G38">
+        <v>-0.04366377505799914</v>
+      </c>
+      <c r="H38">
+        <v>0.02946838047413431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01803641182172654</v>
+        <v>0.007854093289174392</v>
       </c>
       <c r="C39">
-        <v>0.06157105532738914</v>
+        <v>0.08512692314541431</v>
       </c>
       <c r="D39">
-        <v>0.1172110397950405</v>
+        <v>0.08661724301145673</v>
       </c>
       <c r="E39">
-        <v>0.01449911831482056</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.08172418798585708</v>
+      </c>
+      <c r="F39">
+        <v>-0.005982242111955864</v>
+      </c>
+      <c r="G39">
+        <v>-0.005777849326532036</v>
+      </c>
+      <c r="H39">
+        <v>0.008424749838718649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0189148505324804</v>
+        <v>0.01383676668619885</v>
       </c>
       <c r="C40">
-        <v>0.02400882935735235</v>
+        <v>0.04441511457699679</v>
       </c>
       <c r="D40">
-        <v>0.1265094190328089</v>
+        <v>0.08858682344472878</v>
       </c>
       <c r="E40">
-        <v>0.009513336686226935</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.07220127551540388</v>
+      </c>
+      <c r="F40">
+        <v>-0.02567612137689654</v>
+      </c>
+      <c r="G40">
+        <v>-0.08312730651516848</v>
+      </c>
+      <c r="H40">
+        <v>-0.0337375751240716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01114948601453136</v>
+        <v>0.0191014148976125</v>
       </c>
       <c r="C41">
-        <v>0.003278953670523678</v>
+        <v>0.02253454977450546</v>
       </c>
       <c r="D41">
-        <v>0.04018413481766041</v>
+        <v>0.04531050044082145</v>
       </c>
       <c r="E41">
-        <v>0.0344380215307656</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01057113134904904</v>
+      </c>
+      <c r="F41">
+        <v>0.02396682791767684</v>
+      </c>
+      <c r="G41">
+        <v>-0.01258260936466856</v>
+      </c>
+      <c r="H41">
+        <v>0.003396838188690477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.000806376027289793</v>
+        <v>0.01077012348430999</v>
       </c>
       <c r="C43">
-        <v>0.002838868729236994</v>
+        <v>0.01772007493663827</v>
       </c>
       <c r="D43">
-        <v>0.05262623591638853</v>
+        <v>0.05081309343554751</v>
       </c>
       <c r="E43">
-        <v>0.02948295242227444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02552972176123921</v>
+      </c>
+      <c r="F43">
+        <v>0.02384578328101229</v>
+      </c>
+      <c r="G43">
+        <v>-0.01550424309782988</v>
+      </c>
+      <c r="H43">
+        <v>0.01729816538284783</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02012363494508619</v>
+        <v>0.01169483332845578</v>
       </c>
       <c r="C44">
-        <v>0.0247980755209252</v>
+        <v>0.04981104108430926</v>
       </c>
       <c r="D44">
-        <v>0.09984304542816747</v>
+        <v>0.09860934975127543</v>
       </c>
       <c r="E44">
-        <v>0.07092757664063169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.06442751477735469</v>
+      </c>
+      <c r="F44">
+        <v>0.04080459117437187</v>
+      </c>
+      <c r="G44">
+        <v>-0.04845524049024214</v>
+      </c>
+      <c r="H44">
+        <v>0.01938712263819889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.005470384122675727</v>
+        <v>-0.001145754008382794</v>
       </c>
       <c r="C46">
-        <v>0.03170907801223459</v>
+        <v>0.04378605957885601</v>
       </c>
       <c r="D46">
-        <v>0.08919721665773778</v>
+        <v>0.06873143836172436</v>
       </c>
       <c r="E46">
-        <v>0.03535585824296886</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.07140845430886361</v>
+      </c>
+      <c r="F46">
+        <v>0.03557140382759104</v>
+      </c>
+      <c r="G46">
+        <v>-0.03811491102833192</v>
+      </c>
+      <c r="H46">
+        <v>-0.001973820489230429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07819477109393137</v>
+        <v>0.03222166072281963</v>
       </c>
       <c r="C47">
-        <v>0.109620928551642</v>
+        <v>0.1274168470255082</v>
       </c>
       <c r="D47">
-        <v>0.0660032716807952</v>
+        <v>0.02309559130007645</v>
       </c>
       <c r="E47">
-        <v>0.0276332114514201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.00158394398962767</v>
+      </c>
+      <c r="F47">
+        <v>-0.003740908861169251</v>
+      </c>
+      <c r="G47">
+        <v>0.01109280096936175</v>
+      </c>
+      <c r="H47">
+        <v>0.01173194262888535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01066930724434286</v>
+        <v>0.01443848870906483</v>
       </c>
       <c r="C48">
-        <v>0.01838124845535571</v>
+        <v>0.03470164563791679</v>
       </c>
       <c r="D48">
-        <v>0.07717527859578235</v>
+        <v>0.06912273877580578</v>
       </c>
       <c r="E48">
-        <v>0.06189738921465568</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.03979723175489581</v>
+      </c>
+      <c r="F48">
+        <v>0.05746333589325599</v>
+      </c>
+      <c r="G48">
+        <v>-0.03584357205193071</v>
+      </c>
+      <c r="H48">
+        <v>0.006418968965159754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03429447788777702</v>
+        <v>0.01418560211533085</v>
       </c>
       <c r="C50">
-        <v>0.05749234879788983</v>
+        <v>0.0755921925210571</v>
       </c>
       <c r="D50">
-        <v>0.06221476265750821</v>
+        <v>0.04373961290136079</v>
       </c>
       <c r="E50">
-        <v>0.01636729692830232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02501840294047926</v>
+      </c>
+      <c r="F50">
+        <v>0.01075673124841708</v>
+      </c>
+      <c r="G50">
+        <v>-0.02687720793725873</v>
+      </c>
+      <c r="H50">
+        <v>0.01723069670186574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.004428889663850044</v>
+        <v>-0.004590482507752334</v>
       </c>
       <c r="C51">
-        <v>0.007336683020833496</v>
+        <v>0.01743589819845825</v>
       </c>
       <c r="D51">
-        <v>0.05913591790480172</v>
+        <v>0.04151734566304431</v>
       </c>
       <c r="E51">
-        <v>0.02194209441520028</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.04718637284142076</v>
+      </c>
+      <c r="F51">
+        <v>0.03608114588957099</v>
+      </c>
+      <c r="G51">
+        <v>-0.0523779354505215</v>
+      </c>
+      <c r="H51">
+        <v>-0.01075149821709957</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.110208387576616</v>
+        <v>0.06000963636736004</v>
       </c>
       <c r="C53">
-        <v>0.1259465646908904</v>
+        <v>0.159373132683363</v>
       </c>
       <c r="D53">
-        <v>-0.00648793624322907</v>
+        <v>-0.01985977799054106</v>
       </c>
       <c r="E53">
-        <v>0.04310435599582337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03284213709142114</v>
+      </c>
+      <c r="F53">
+        <v>0.04291598523058442</v>
+      </c>
+      <c r="G53">
+        <v>-0.003972926663680916</v>
+      </c>
+      <c r="H53">
+        <v>0.01117340982480928</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01192809920582193</v>
+        <v>0.01211150171448917</v>
       </c>
       <c r="C54">
-        <v>0.02336845562139286</v>
+        <v>0.04138290129163402</v>
       </c>
       <c r="D54">
-        <v>0.09684373948844702</v>
+        <v>0.07615220266047779</v>
       </c>
       <c r="E54">
-        <v>0.02124609494559978</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.03959779352330076</v>
+      </c>
+      <c r="F54">
+        <v>0.006928972743454952</v>
+      </c>
+      <c r="G54">
+        <v>-0.04075581601446798</v>
+      </c>
+      <c r="H54">
+        <v>0.02375736954757111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09462774157317004</v>
+        <v>0.04374469759983193</v>
       </c>
       <c r="C55">
-        <v>0.1079357030822011</v>
+        <v>0.1293556273778011</v>
       </c>
       <c r="D55">
-        <v>-0.001038314560898865</v>
+        <v>-0.04446971697796843</v>
       </c>
       <c r="E55">
-        <v>-0.005081042363725806</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.005411799502592222</v>
+      </c>
+      <c r="F55">
+        <v>0.002574631656243355</v>
+      </c>
+      <c r="G55">
+        <v>-0.009457245831344619</v>
+      </c>
+      <c r="H55">
+        <v>-0.007748889802741076</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1332646628197177</v>
+        <v>0.06053140441472766</v>
       </c>
       <c r="C56">
-        <v>0.1484145897115464</v>
+        <v>0.1890104369954602</v>
       </c>
       <c r="D56">
-        <v>0.01658335496951783</v>
+        <v>-0.03734848139802624</v>
       </c>
       <c r="E56">
-        <v>-0.002919048772637161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03510459257839922</v>
+      </c>
+      <c r="F56">
+        <v>0.00919364240672879</v>
+      </c>
+      <c r="G56">
+        <v>-0.05951771072676908</v>
+      </c>
+      <c r="H56">
+        <v>-0.003027538027385697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002419733119207508</v>
+        <v>0.00594128475190548</v>
       </c>
       <c r="C58">
-        <v>0.01635784680320809</v>
+        <v>0.06200299449163527</v>
       </c>
       <c r="D58">
-        <v>0.2244530605191941</v>
+        <v>0.2679854460551441</v>
       </c>
       <c r="E58">
-        <v>0.1504205852278033</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.06591831825307752</v>
+      </c>
+      <c r="F58">
+        <v>0.1383200390922081</v>
+      </c>
+      <c r="G58">
+        <v>-0.1557560418173812</v>
+      </c>
+      <c r="H58">
+        <v>0.07608358536352944</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1856593366734885</v>
+        <v>0.2567262387992797</v>
       </c>
       <c r="C59">
-        <v>-0.1388940439692739</v>
+        <v>-0.06157924614468407</v>
       </c>
       <c r="D59">
-        <v>0.0455091234644255</v>
+        <v>0.04528887666219073</v>
       </c>
       <c r="E59">
-        <v>0.03622042693663534</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0183861731120642</v>
+      </c>
+      <c r="F59">
+        <v>0.01908142923631962</v>
+      </c>
+      <c r="G59">
+        <v>-0.01651806696326144</v>
+      </c>
+      <c r="H59">
+        <v>-0.03770375441383023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1876963095204283</v>
+        <v>0.1568585253119227</v>
       </c>
       <c r="C60">
-        <v>0.09071755123128865</v>
+        <v>0.1636941749672331</v>
       </c>
       <c r="D60">
-        <v>0.1246820807756641</v>
+        <v>0.04281678414487462</v>
       </c>
       <c r="E60">
-        <v>-0.08925457427800863</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1244320694955966</v>
+      </c>
+      <c r="F60">
+        <v>-0.1994545134633326</v>
+      </c>
+      <c r="G60">
+        <v>0.2738705905031498</v>
+      </c>
+      <c r="H60">
+        <v>-0.09162572159432443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02815461734994992</v>
+        <v>0.01598339746319168</v>
       </c>
       <c r="C61">
-        <v>0.05642164591900996</v>
+        <v>0.08040199903345074</v>
       </c>
       <c r="D61">
-        <v>0.09114863141768775</v>
+        <v>0.06610937348725092</v>
       </c>
       <c r="E61">
-        <v>0.003278622705654109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.06103638385090095</v>
+      </c>
+      <c r="F61">
+        <v>-0.01476031927730239</v>
+      </c>
+      <c r="G61">
+        <v>0.003640018209197494</v>
+      </c>
+      <c r="H61">
+        <v>-0.001874886138071918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01212192575298978</v>
+        <v>0.01513123306891211</v>
       </c>
       <c r="C63">
-        <v>0.02552460031063103</v>
+        <v>0.04369523453262707</v>
       </c>
       <c r="D63">
-        <v>0.08363630163881851</v>
+        <v>0.05293802391955426</v>
       </c>
       <c r="E63">
-        <v>0.02952590150694677</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.07492743649853978</v>
+      </c>
+      <c r="F63">
+        <v>0.02492176288063701</v>
+      </c>
+      <c r="G63">
+        <v>-0.01679894223623529</v>
+      </c>
+      <c r="H63">
+        <v>0.008416847813725649</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05522227482133407</v>
+        <v>0.01815228821360984</v>
       </c>
       <c r="C64">
-        <v>0.08653033459943138</v>
+        <v>0.1039204236206719</v>
       </c>
       <c r="D64">
-        <v>0.02635369820535829</v>
+        <v>0.0130801243601086</v>
       </c>
       <c r="E64">
-        <v>0.02311965426306432</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03359216842196554</v>
+      </c>
+      <c r="F64">
+        <v>0.02125852819101004</v>
+      </c>
+      <c r="G64">
+        <v>0.01428212238270204</v>
+      </c>
+      <c r="H64">
+        <v>0.03275438230859284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02776364322295593</v>
+        <v>0.02617321946780311</v>
       </c>
       <c r="C65">
-        <v>0.01752950056851441</v>
+        <v>0.04663605512648687</v>
       </c>
       <c r="D65">
-        <v>0.1002674617582654</v>
+        <v>0.0980158891094814</v>
       </c>
       <c r="E65">
-        <v>0.02949037099652223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.06672041294586788</v>
+      </c>
+      <c r="F65">
+        <v>-0.003669403993102508</v>
+      </c>
+      <c r="G65">
+        <v>0.03322874447611023</v>
+      </c>
+      <c r="H65">
+        <v>0.03147836814748505</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02508209933407306</v>
+        <v>0.008097163700790248</v>
       </c>
       <c r="C66">
-        <v>0.07122394214309817</v>
+        <v>0.1051606176099566</v>
       </c>
       <c r="D66">
-        <v>0.1340740999260235</v>
+        <v>0.1112834275335461</v>
       </c>
       <c r="E66">
-        <v>0.01550325564487721</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.07610158579915371</v>
+      </c>
+      <c r="F66">
+        <v>-0.006311368286826337</v>
+      </c>
+      <c r="G66">
+        <v>-0.02244447290878037</v>
+      </c>
+      <c r="H66">
+        <v>0.01287819666272551</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02340864312413158</v>
+        <v>0.02175833759525119</v>
       </c>
       <c r="C67">
-        <v>0.01985753824883791</v>
+        <v>0.03746315849487943</v>
       </c>
       <c r="D67">
-        <v>0.05429978142229082</v>
+        <v>0.04390877334082292</v>
       </c>
       <c r="E67">
-        <v>-0.009516930857607306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03064287834470089</v>
+      </c>
+      <c r="F67">
+        <v>-0.02514019560362515</v>
+      </c>
+      <c r="G67">
+        <v>-0.02106314532441188</v>
+      </c>
+      <c r="H67">
+        <v>0.02094587234447153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2010369712463987</v>
+        <v>0.2785176534176528</v>
       </c>
       <c r="C68">
-        <v>-0.1507327177789235</v>
+        <v>-0.07291293789151344</v>
       </c>
       <c r="D68">
-        <v>0.01407380701012781</v>
+        <v>0.02211867408975801</v>
       </c>
       <c r="E68">
-        <v>0.01972984521251658</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005493789723780501</v>
+      </c>
+      <c r="F68">
+        <v>0.0268533191492245</v>
+      </c>
+      <c r="G68">
+        <v>-0.05275935080190763</v>
+      </c>
+      <c r="H68">
+        <v>-0.002969039234962606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05923427562392031</v>
+        <v>0.01803663003475033</v>
       </c>
       <c r="C69">
-        <v>0.1182310390233612</v>
+        <v>0.1179336508758953</v>
       </c>
       <c r="D69">
-        <v>0.08061618046135546</v>
+        <v>0.01967810129590532</v>
       </c>
       <c r="E69">
-        <v>0.0173954782230107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01389006745624808</v>
+      </c>
+      <c r="F69">
+        <v>-0.01263489382213659</v>
+      </c>
+      <c r="G69">
+        <v>-0.001929281498151621</v>
+      </c>
+      <c r="H69">
+        <v>-0.002533820742970485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2174539581310954</v>
+        <v>0.2712976589640017</v>
       </c>
       <c r="C71">
-        <v>-0.1760108526872789</v>
+        <v>-0.0885759600532329</v>
       </c>
       <c r="D71">
-        <v>0.01627200225329167</v>
+        <v>0.00966785229670386</v>
       </c>
       <c r="E71">
-        <v>0.01035518203489315</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.00788844243937219</v>
+      </c>
+      <c r="F71">
+        <v>0.01605135958318195</v>
+      </c>
+      <c r="G71">
+        <v>-0.04234021818750576</v>
+      </c>
+      <c r="H71">
+        <v>0.01274564202047151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1030698750595544</v>
+        <v>0.06360988902582888</v>
       </c>
       <c r="C72">
-        <v>0.07306298810115663</v>
+        <v>0.1253697099040035</v>
       </c>
       <c r="D72">
-        <v>0.1181284448584844</v>
+        <v>0.05428799056670091</v>
       </c>
       <c r="E72">
-        <v>0.002287868530869935</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08574493189009255</v>
+      </c>
+      <c r="F72">
+        <v>-0.01981915001480143</v>
+      </c>
+      <c r="G72">
+        <v>0.02830461458689233</v>
+      </c>
+      <c r="H72">
+        <v>0.002278561550543878</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1766191541837487</v>
+        <v>0.1593601380240563</v>
       </c>
       <c r="C73">
-        <v>0.0660759955667707</v>
+        <v>0.161196805561343</v>
       </c>
       <c r="D73">
-        <v>0.2031193980870005</v>
+        <v>0.06655197776241178</v>
       </c>
       <c r="E73">
-        <v>-0.1466368205415799</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3025472071223256</v>
+      </c>
+      <c r="F73">
+        <v>-0.2911395955979908</v>
+      </c>
+      <c r="G73">
+        <v>0.4279330325124917</v>
+      </c>
+      <c r="H73">
+        <v>-0.05275960104914214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1053389545011153</v>
+        <v>0.05429204818220522</v>
       </c>
       <c r="C74">
-        <v>0.1139400126213458</v>
+        <v>0.1410339147086307</v>
       </c>
       <c r="D74">
-        <v>-0.04924194655339678</v>
+        <v>-0.05086064136176409</v>
       </c>
       <c r="E74">
-        <v>0.02056319178301844</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.02750662384937302</v>
+      </c>
+      <c r="F74">
+        <v>0.03017941424897438</v>
+      </c>
+      <c r="G74">
+        <v>0.01371867560112462</v>
+      </c>
+      <c r="H74">
+        <v>0.0006496599217910196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2237927037428575</v>
+        <v>0.1006746237739534</v>
       </c>
       <c r="C75">
-        <v>0.2022760208769533</v>
+        <v>0.2604380177825344</v>
       </c>
       <c r="D75">
-        <v>-0.07346351554069226</v>
+        <v>-0.1226375943565326</v>
       </c>
       <c r="E75">
-        <v>-0.06752916796338886</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1189417313242453</v>
+      </c>
+      <c r="F75">
+        <v>-0.04315276155061595</v>
+      </c>
+      <c r="G75">
+        <v>-0.1148376397542294</v>
+      </c>
+      <c r="H75">
+        <v>0.06106298898470939</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1359994369412476</v>
+        <v>0.06091084006337377</v>
       </c>
       <c r="C76">
-        <v>0.1361312810926465</v>
+        <v>0.1766619351724346</v>
       </c>
       <c r="D76">
-        <v>-0.0009839398012335427</v>
+        <v>-0.05097779590016751</v>
       </c>
       <c r="E76">
-        <v>-0.008565520251340114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03551428243291821</v>
+      </c>
+      <c r="F76">
+        <v>-0.001347672794778457</v>
+      </c>
+      <c r="G76">
+        <v>-0.04479823616819428</v>
+      </c>
+      <c r="H76">
+        <v>0.01264462930528733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.01740735402049941</v>
+        <v>0.0006847630766426439</v>
       </c>
       <c r="C77">
-        <v>0.07638453570983217</v>
+        <v>0.114736859597667</v>
       </c>
       <c r="D77">
-        <v>0.1937863650680791</v>
+        <v>0.4803677511083784</v>
       </c>
       <c r="E77">
-        <v>0.1545450888075847</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7698658787122776</v>
+      </c>
+      <c r="F77">
+        <v>-0.2089588248599061</v>
+      </c>
+      <c r="G77">
+        <v>0.2189181972222363</v>
+      </c>
+      <c r="H77">
+        <v>0.02309434514169091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03342759309632243</v>
+        <v>0.02321931657931687</v>
       </c>
       <c r="C78">
-        <v>0.0736490439741368</v>
+        <v>0.09555243941964696</v>
       </c>
       <c r="D78">
-        <v>0.1531495628354153</v>
+        <v>0.08989089772507858</v>
       </c>
       <c r="E78">
-        <v>0.07669421650684241</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07568106172955968</v>
+      </c>
+      <c r="F78">
+        <v>0.05182160876044189</v>
+      </c>
+      <c r="G78">
+        <v>-0.07904724508745883</v>
+      </c>
+      <c r="H78">
+        <v>-0.05375837904512974</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1083650954937277</v>
+        <v>0.04727909036704006</v>
       </c>
       <c r="C79">
-        <v>0.1977258344249325</v>
+        <v>0.205901040524541</v>
       </c>
       <c r="D79">
-        <v>-0.4071948296769287</v>
+        <v>-0.1156841237578215</v>
       </c>
       <c r="E79">
-        <v>0.7909215148580473</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.109395307764158</v>
+      </c>
+      <c r="F79">
+        <v>0.7834360611444972</v>
+      </c>
+      <c r="G79">
+        <v>0.4517208784774422</v>
+      </c>
+      <c r="H79">
+        <v>0.02093280898346846</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.003896441986398781</v>
+        <v>0.007413999311296052</v>
       </c>
       <c r="C80">
-        <v>0.04406612541810117</v>
+        <v>0.04451945207487195</v>
       </c>
       <c r="D80">
-        <v>0.05154070866519241</v>
+        <v>0.03307803736733381</v>
       </c>
       <c r="E80">
-        <v>0.007292262774242304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06016294374290018</v>
+      </c>
+      <c r="F80">
+        <v>0.003533240430011251</v>
+      </c>
+      <c r="G80">
+        <v>-0.008211777950532444</v>
+      </c>
+      <c r="H80">
+        <v>-0.08975593378897401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1139951331401162</v>
+        <v>0.03948868283172062</v>
       </c>
       <c r="C81">
-        <v>0.1355355103422629</v>
+        <v>0.1618404008844411</v>
       </c>
       <c r="D81">
-        <v>-0.07288434008570235</v>
+        <v>-0.07027717019405746</v>
       </c>
       <c r="E81">
-        <v>0.01608247716954438</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06077818082640526</v>
+      </c>
+      <c r="F81">
+        <v>0.05808777715149206</v>
+      </c>
+      <c r="G81">
+        <v>-0.07899654624251294</v>
+      </c>
+      <c r="H81">
+        <v>-0.01246994772456537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2369518654086185</v>
+        <v>0.08602406463768374</v>
       </c>
       <c r="C82">
-        <v>0.29689547891137</v>
+        <v>0.3044869704801199</v>
       </c>
       <c r="D82">
-        <v>-0.1276344404323454</v>
+        <v>-0.2233815152291302</v>
       </c>
       <c r="E82">
-        <v>-0.2113947670441879</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.101147262521566</v>
+      </c>
+      <c r="F82">
+        <v>-0.1246758105663748</v>
+      </c>
+      <c r="G82">
+        <v>-0.1388350490033113</v>
+      </c>
+      <c r="H82">
+        <v>-0.01904507722752487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.009888770359071142</v>
+        <v>-0.009215524745734133</v>
       </c>
       <c r="C83">
-        <v>0.05318734671733653</v>
+        <v>0.01950000291385085</v>
       </c>
       <c r="D83">
-        <v>0.01289956496848309</v>
+        <v>0.02547453029991912</v>
       </c>
       <c r="E83">
-        <v>0.04474190571956571</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09050439873647641</v>
+      </c>
+      <c r="F83">
+        <v>0.06758736507629556</v>
+      </c>
+      <c r="G83">
+        <v>-0.1075542212747471</v>
+      </c>
+      <c r="H83">
+        <v>-0.9269403444890596</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>8.059190500218543e-05</v>
+        <v>-0.003261936455256829</v>
       </c>
       <c r="C84">
-        <v>-0.001564547705005382</v>
+        <v>0.01842654371129637</v>
       </c>
       <c r="D84">
-        <v>0.002029417467837264</v>
+        <v>0.04173652589421969</v>
       </c>
       <c r="E84">
-        <v>-0.002212947342949816</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01185786999186401</v>
+      </c>
+      <c r="F84">
+        <v>0.03127173839321348</v>
+      </c>
+      <c r="G84">
+        <v>-0.06193838952252909</v>
+      </c>
+      <c r="H84">
+        <v>0.05122444209878757</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1409278960293046</v>
+        <v>0.05608241383959876</v>
       </c>
       <c r="C85">
-        <v>0.1428719810940667</v>
+        <v>0.176969956879325</v>
       </c>
       <c r="D85">
-        <v>-0.07699481312809543</v>
+        <v>-0.1088673003622464</v>
       </c>
       <c r="E85">
-        <v>0.02048444946756046</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.02169774833935365</v>
+      </c>
+      <c r="F85">
+        <v>0.06583359274300089</v>
+      </c>
+      <c r="G85">
+        <v>-0.02359599633223494</v>
+      </c>
+      <c r="H85">
+        <v>0.01692621818318789</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02053618739507681</v>
+        <v>0.0157140908884558</v>
       </c>
       <c r="C86">
-        <v>0.009287928070065898</v>
+        <v>0.03976356755197783</v>
       </c>
       <c r="D86">
-        <v>0.107446237918956</v>
+        <v>0.1100052830573717</v>
       </c>
       <c r="E86">
-        <v>0.04345517103956783</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.0006737957492842904</v>
+      </c>
+      <c r="F86">
+        <v>0.01873728533677694</v>
+      </c>
+      <c r="G86">
+        <v>0.008221169568363171</v>
+      </c>
+      <c r="H86">
+        <v>0.02841754168838464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02268369106897314</v>
+        <v>0.0135318688848473</v>
       </c>
       <c r="C87">
-        <v>0.03002543743084649</v>
+        <v>0.06640904516004134</v>
       </c>
       <c r="D87">
-        <v>0.1449905590160604</v>
+        <v>0.1372119372546144</v>
       </c>
       <c r="E87">
-        <v>0.0842082842198522</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.0462691917477278</v>
+      </c>
+      <c r="F87">
+        <v>0.0505865625804657</v>
+      </c>
+      <c r="G87">
+        <v>-0.07717820419350815</v>
+      </c>
+      <c r="H87">
+        <v>-0.01786360153950712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05206329845382671</v>
+        <v>0.0360126844429362</v>
       </c>
       <c r="C88">
-        <v>0.0450813562283833</v>
+        <v>0.07106112505629204</v>
       </c>
       <c r="D88">
-        <v>0.009529670964964961</v>
+        <v>0.01340351554167458</v>
       </c>
       <c r="E88">
-        <v>0.02343231946082179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.032830706255773</v>
+      </c>
+      <c r="F88">
+        <v>0.01985966631582623</v>
+      </c>
+      <c r="G88">
+        <v>0.01020467803576614</v>
+      </c>
+      <c r="H88">
+        <v>0.01975783732569356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3242745377820603</v>
+        <v>0.3972552104744317</v>
       </c>
       <c r="C89">
-        <v>-0.3179210831297995</v>
+        <v>-0.1643259657745496</v>
       </c>
       <c r="D89">
-        <v>0.04182614961553469</v>
+        <v>0.05402465394237424</v>
       </c>
       <c r="E89">
-        <v>0.1115514407744974</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.0363579749730122</v>
+      </c>
+      <c r="F89">
+        <v>0.0655119418564495</v>
+      </c>
+      <c r="G89">
+        <v>-0.07068448383455582</v>
+      </c>
+      <c r="H89">
+        <v>-0.09697115843031442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2595831288474324</v>
+        <v>0.3221341180201853</v>
       </c>
       <c r="C90">
-        <v>-0.235335233745515</v>
+        <v>-0.1088250549698105</v>
       </c>
       <c r="D90">
-        <v>0.05339708567406422</v>
+        <v>0.03263993007441995</v>
       </c>
       <c r="E90">
-        <v>0.001570095750154154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002281122468583538</v>
+      </c>
+      <c r="F90">
+        <v>-0.004761514723819566</v>
+      </c>
+      <c r="G90">
+        <v>-0.06418789449755277</v>
+      </c>
+      <c r="H90">
+        <v>-0.007240776674254598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.14891360324691</v>
+        <v>0.06782163958138741</v>
       </c>
       <c r="C91">
-        <v>0.191349577718108</v>
+        <v>0.2028350304008628</v>
       </c>
       <c r="D91">
-        <v>-0.09633467413373677</v>
+        <v>-0.1027735736183848</v>
       </c>
       <c r="E91">
-        <v>0.04532999628588742</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08350663548031408</v>
+      </c>
+      <c r="F91">
+        <v>0.05634692230301993</v>
+      </c>
+      <c r="G91">
+        <v>-0.003093728230420882</v>
+      </c>
+      <c r="H91">
+        <v>-0.02015640149211732</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2433409076016778</v>
+        <v>0.3324461096095759</v>
       </c>
       <c r="C92">
-        <v>-0.2597301637154429</v>
+        <v>-0.1497219479350841</v>
       </c>
       <c r="D92">
-        <v>-0.04381862344815015</v>
+        <v>0.02222761375376816</v>
       </c>
       <c r="E92">
-        <v>0.0316586303329874</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06827698056461162</v>
+      </c>
+      <c r="F92">
+        <v>0.04012906093213971</v>
+      </c>
+      <c r="G92">
+        <v>-0.02567189823509684</v>
+      </c>
+      <c r="H92">
+        <v>0.1325253747995279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2846133671273283</v>
+        <v>0.3300875423754996</v>
       </c>
       <c r="C93">
-        <v>-0.2493551103017217</v>
+        <v>-0.1228271280826232</v>
       </c>
       <c r="D93">
-        <v>-0.01856648119048228</v>
+        <v>-0.02430893852202724</v>
       </c>
       <c r="E93">
-        <v>0.002590298558567447</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01244989381695789</v>
+      </c>
+      <c r="F93">
+        <v>0.01274020706717156</v>
+      </c>
+      <c r="G93">
+        <v>0.01807060437789899</v>
+      </c>
+      <c r="H93">
+        <v>0.03720316767196193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2752127414932343</v>
+        <v>0.1241817436014849</v>
       </c>
       <c r="C94">
-        <v>0.2696166500156877</v>
+        <v>0.3270045361921264</v>
       </c>
       <c r="D94">
-        <v>-0.2477521232930759</v>
+        <v>-0.3513522651856186</v>
       </c>
       <c r="E94">
-        <v>-0.2828237453891196</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.129025962569534</v>
+      </c>
+      <c r="F94">
+        <v>-0.1335304658069526</v>
+      </c>
+      <c r="G94">
+        <v>-0.2990264978987913</v>
+      </c>
+      <c r="H94">
+        <v>0.05723992496415533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.00962950160219473</v>
+        <v>0.01624923478221278</v>
       </c>
       <c r="C95">
-        <v>0.04305323227871536</v>
+        <v>0.07022448980339001</v>
       </c>
       <c r="D95">
-        <v>0.09861746025722906</v>
+        <v>0.1337063562527059</v>
       </c>
       <c r="E95">
-        <v>0.05542144700776506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.09404685954056</v>
+      </c>
+      <c r="F95">
+        <v>-0.03594794776209459</v>
+      </c>
+      <c r="G95">
+        <v>0.05040026160519852</v>
+      </c>
+      <c r="H95">
+        <v>0.05262791058094803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.00241575549361823</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009909726235000189</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0004929337233676441</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003552183650340353</v>
+      </c>
+      <c r="F97">
+        <v>0.0005274611645566846</v>
+      </c>
+      <c r="G97">
+        <v>-0.002389022728176472</v>
+      </c>
+      <c r="H97">
+        <v>0.004906247745611039</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1548100562314379</v>
+        <v>0.1353429280304767</v>
       </c>
       <c r="C98">
-        <v>0.08967112658317085</v>
+        <v>0.1610470584344551</v>
       </c>
       <c r="D98">
-        <v>0.1304056580040074</v>
+        <v>0.02638998992196739</v>
       </c>
       <c r="E98">
-        <v>-0.1328236966774713</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1948108773224179</v>
+      </c>
+      <c r="F98">
+        <v>-0.2397159071236878</v>
+      </c>
+      <c r="G98">
+        <v>0.3140139705962223</v>
+      </c>
+      <c r="H98">
+        <v>-0.07460557822010744</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002472378251991315</v>
+        <v>0.003353043577232586</v>
       </c>
       <c r="C101">
-        <v>0.02196666123857087</v>
+        <v>0.04063559901360893</v>
       </c>
       <c r="D101">
-        <v>0.08392972315996358</v>
+        <v>0.09136361807664868</v>
       </c>
       <c r="E101">
-        <v>0.03617779180467893</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.09470134327115304</v>
+      </c>
+      <c r="F101">
+        <v>0.03312708016674687</v>
+      </c>
+      <c r="G101">
+        <v>-0.02686610631272848</v>
+      </c>
+      <c r="H101">
+        <v>-0.03936503446601992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1009113264945697</v>
+        <v>0.02429213256453514</v>
       </c>
       <c r="C102">
-        <v>0.1617759556548182</v>
+        <v>0.142467278484954</v>
       </c>
       <c r="D102">
-        <v>-0.02510217715778876</v>
+        <v>-0.095840166221816</v>
       </c>
       <c r="E102">
-        <v>-0.0929680850687036</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.05436029985667821</v>
+      </c>
+      <c r="F102">
+        <v>-0.08020785665670589</v>
+      </c>
+      <c r="G102">
+        <v>-0.01278373568133754</v>
+      </c>
+      <c r="H102">
+        <v>-0.02402435558511174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
